--- a/account/management/commands/sync_customer_phone_1.xlsx
+++ b/account/management/commands/sync_customer_phone_1.xlsx
@@ -14,23 +14,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+  <si>
+    <t>bjyuanshengjian</t>
+  </si>
+  <si>
+    <t>bjfqyp</t>
+  </si>
+  <si>
+    <t>bjlrym</t>
+  </si>
+  <si>
+    <t>bjjingku</t>
+  </si>
+  <si>
+    <t>bjzxhy</t>
+  </si>
   <si>
     <t>ntstny</t>
   </si>
   <si>
+    <t>bjbabeiti</t>
+  </si>
+  <si>
+    <t>bjszsp</t>
+  </si>
+  <si>
     <t>mugongshang</t>
   </si>
   <si>
+    <t>qisenongye</t>
+  </si>
+  <si>
+    <t>zimengjiao</t>
+  </si>
+  <si>
+    <t>aizaozhi</t>
+  </si>
+  <si>
+    <t>yubinghua</t>
+  </si>
+  <si>
+    <t>boyin</t>
+  </si>
+  <si>
     <t>ouyalu</t>
   </si>
   <si>
+    <t>jiajiaming</t>
+  </si>
+  <si>
+    <t>yirongfang</t>
+  </si>
+  <si>
     <t>990cu</t>
   </si>
   <si>
+    <t>liubaitou</t>
+  </si>
+  <si>
+    <t>youweiya</t>
+  </si>
+  <si>
+    <t>18191765261   </t>
+  </si>
+  <si>
+    <t>aimi</t>
+  </si>
+  <si>
+    <t>njmuqiu</t>
+  </si>
+  <si>
     <t>shshangyi</t>
   </si>
   <si>
+    <t>bjfysw</t>
+  </si>
+  <si>
     <t>bjsyhc</t>
   </si>
   <si>
@@ -64,6 +124,12 @@
     <t>fancaotang</t>
   </si>
   <si>
+    <t>jiujiuling</t>
+  </si>
+  <si>
+    <t>chalu</t>
+  </si>
+  <si>
     <t>leyun</t>
   </si>
   <si>
@@ -73,6 +139,9 @@
     <t>qixiangnongye</t>
   </si>
   <si>
+    <t>rushui</t>
+  </si>
+  <si>
     <t>shtideshiye</t>
   </si>
   <si>
@@ -109,6 +178,9 @@
     <t>wancheng</t>
   </si>
   <si>
+    <t>zdshengwu</t>
+  </si>
+  <si>
     <t>zhuoyuanweilai</t>
   </si>
   <si>
@@ -124,6 +196,9 @@
     <t>aiyueguanye</t>
   </si>
   <si>
+    <t>lixinlianhe</t>
+  </si>
+  <si>
     <t>cjchuangpin</t>
   </si>
   <si>
@@ -157,6 +232,9 @@
     <t>haoyijia</t>
   </si>
   <si>
+    <t>ainikafei</t>
+  </si>
+  <si>
     <t>huajitang</t>
   </si>
   <si>
@@ -175,6 +253,9 @@
     <t>dongyunyueqi</t>
   </si>
   <si>
+    <t>momi</t>
+  </si>
+  <si>
     <t>fuwashiye</t>
   </si>
   <si>
@@ -184,12 +265,21 @@
     <t>anbijia</t>
   </si>
   <si>
+    <t>bainenghufu</t>
+  </si>
+  <si>
     <t>guorantiaowei</t>
   </si>
   <si>
     <t>liangfeng</t>
   </si>
   <si>
+    <t>boniya</t>
+  </si>
+  <si>
+    <t>yingguan</t>
+  </si>
+  <si>
     <t>yuanyezhenshi</t>
   </si>
   <si>
@@ -202,12 +292,24 @@
     <t>baoyangong</t>
   </si>
   <si>
+    <t>miqier</t>
+  </si>
+  <si>
+    <t>sanqitang</t>
+  </si>
+  <si>
     <t>shsaihan</t>
   </si>
   <si>
+    <t>ertongshazi</t>
+  </si>
+  <si>
     <t>weihualaoban</t>
   </si>
   <si>
+    <t>tuxiaobao</t>
+  </si>
+  <si>
     <t>wofuxiaozi</t>
   </si>
   <si>
@@ -232,6 +334,9 @@
     <t>shengchengzhenzhi</t>
   </si>
   <si>
+    <t>yihumingjiu</t>
+  </si>
+  <si>
     <t>beimiaomei</t>
   </si>
   <si>
@@ -241,15 +346,30 @@
     <t>bailingda</t>
   </si>
   <si>
+    <t>lehua</t>
+  </si>
+  <si>
     <t>hnlvyizhou</t>
   </si>
   <si>
+    <t>bjgdzz</t>
+  </si>
+  <si>
     <t>bjsiyueshi</t>
   </si>
   <si>
     <t>bjxgrl</t>
   </si>
   <si>
+    <t>xingxiaozheng</t>
+  </si>
+  <si>
+    <t>bjxinzhuzhang</t>
+  </si>
+  <si>
+    <t>bjlonganwanjia</t>
+  </si>
+  <si>
     <t>qdshiweinian</t>
   </si>
   <si>
@@ -262,12 +382,21 @@
     <t>bjjinlansha</t>
   </si>
   <si>
+    <t>bjaxhc</t>
+  </si>
+  <si>
     <t>bjhyysw</t>
   </si>
   <si>
     <t>bjlscc</t>
   </si>
   <si>
+    <t>bjssxd</t>
+  </si>
+  <si>
+    <t>bjjxty</t>
+  </si>
+  <si>
     <t>nmgylxzn</t>
   </si>
   <si>
@@ -301,6 +430,9 @@
     <t>lvweikang</t>
   </si>
   <si>
+    <t>linlixiang</t>
+  </si>
+  <si>
     <t>qianzhounongchanpin</t>
   </si>
   <si>
@@ -310,6 +442,9 @@
     <t>bjyyzl</t>
   </si>
   <si>
+    <t>bjmyks</t>
+  </si>
+  <si>
     <t>bjjsjy</t>
   </si>
   <si>
@@ -328,9 +463,15 @@
     <t>zichenshangmao</t>
   </si>
   <si>
+    <t>tjfbw</t>
+  </si>
+  <si>
     <t>huiyuanxinda</t>
   </si>
   <si>
+    <t>baoshuicang</t>
+  </si>
+  <si>
     <t>bjymhy</t>
   </si>
   <si>
@@ -352,6 +493,9 @@
     <t>hongruikang</t>
   </si>
   <si>
+    <t>bjkexi</t>
+  </si>
+  <si>
     <t>shengshitongrui</t>
   </si>
   <si>
@@ -364,9 +508,18 @@
     <t>shuangqiangdouzhipin</t>
   </si>
   <si>
+    <t>jiningyijia</t>
+  </si>
+  <si>
     <t>yiqingxuan</t>
   </si>
   <si>
+    <t>guoxinmingcha</t>
+  </si>
+  <si>
+    <t>15135975929    </t>
+  </si>
+  <si>
     <t>xianlifang</t>
   </si>
   <si>
@@ -382,15 +535,24 @@
     <t>jiugujiaozhi</t>
   </si>
   <si>
+    <t>nongdao</t>
+  </si>
+  <si>
     <t>xianlu</t>
   </si>
   <si>
+    <t>yasili</t>
+  </si>
+  <si>
     <t>shijitianhe</t>
   </si>
   <si>
     <t>aolifu</t>
   </si>
   <si>
+    <t>gongzishipin</t>
+  </si>
+  <si>
     <t>wuyang</t>
   </si>
   <si>
@@ -406,18 +568,33 @@
     <t>zhongsan</t>
   </si>
   <si>
+    <t>nuoyaju</t>
+  </si>
+  <si>
     <t>anjie</t>
   </si>
   <si>
+    <t>huaji</t>
+  </si>
+  <si>
+    <t>meifuyuan</t>
+  </si>
+  <si>
     <t>fulaide</t>
   </si>
   <si>
+    <t>shuojiuhui</t>
+  </si>
+  <si>
     <t>huiningtang</t>
   </si>
   <si>
     <t>shangyi</t>
   </si>
   <si>
+    <t>yuxiangju</t>
+  </si>
+  <si>
     <t>liangxin</t>
   </si>
   <si>
@@ -428,6 +605,9 @@
   </si>
   <si>
     <t>dongfangyihang</t>
+  </si>
+  <si>
+    <t>xinqidian</t>
   </si>
   <si>
     <t>yingmeng</t>
@@ -438,12 +618,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +634,54 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -465,74 +692,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,16 +719,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,7 +737,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,6 +759,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -594,19 +790,205 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -622,19 +1004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,152 +1026,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -804,35 +1036,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,28 +1096,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,18 +1137,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,19 +1183,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,117 +1207,141 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1113,6 +1399,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1386,10 +1673,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1048575"/>
+  <dimension ref="A1:B1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1402,16 +1689,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>18762855567</v>
+      <c r="B1" s="2">
+        <v>13910885302</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>13011110822</v>
+      <c r="B2" s="2">
+        <v>13810002377</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1419,23 +1706,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>18610679594</v>
+        <v>13910391189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>18637177716</v>
+      <c r="B4" s="3">
+        <v>18201215661</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>13901668002</v>
+      <c r="B5" s="3">
+        <v>18519115499</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1443,23 +1730,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>18610763889</v>
+        <v>18762855567</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>13501236088</v>
+      <c r="B7" s="3">
+        <v>13911058528</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>18639207885</v>
+      <c r="B8" s="3">
+        <v>18610216006</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1467,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>18939930909</v>
+        <v>13011110822</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1475,39 +1762,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>18994331211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>18801035119</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>18912873999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="4">
+        <v>13701848984</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>13120091043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="4">
+        <v>13311050577</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>18537179936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="4">
+        <v>13522666885</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>18616623297</v>
+      <c r="B14" s="4">
+        <v>18910252462</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1515,23 +1802,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>15810331013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>18610679594</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>18151071088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="4">
+        <v>18500319413</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>13671734881</v>
+      <c r="B17" s="4">
+        <v>13816997328</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1539,1167 +1826,1454 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13801748013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>18637177716</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>13887689496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="4">
+        <v>18911504313</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>15727382995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>15162565595</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>15515313067</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>13801961938</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>18913032258</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>15209253455</v>
+        <v>13901668002</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>13501236088</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13683674167</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>15515313067</v>
+        <v>18610763889</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>13911042152</v>
+        <v>13501236088</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>13910341877</v>
+        <v>18639207885</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>13913286388</v>
+        <v>18939930909</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>13581902563</v>
+        <v>18994331211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>13814864788</v>
+        <v>18912873999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>13911899916</v>
+        <v>13120091043</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>13522666885</v>
+        <v>18537179936</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>13661779133</v>
+        <v>18616623297</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>15698276543</v>
+        <v>15810331013</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>18611012905</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>18151071088</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>13407608487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <v>18637177716</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>13906298208</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="4">
+        <v>13911808296</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>18580629021</v>
+        <v>13671734881</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>13121552193</v>
+        <v>13801748013</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>13916501928</v>
+        <v>13887689496</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>13911305786</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>13911198715</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>18616598178</v>
+        <v>15727382995</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>13314450749</v>
+        <v>15162565595</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>13805273388</v>
+        <v>13801961938</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>13601007501</v>
+        <v>15209253455</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>13810289429</v>
+        <v>13501236088</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>13716496415</v>
+        <v>15515313067</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>15101051197</v>
+        <v>13911042152</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>13455282955</v>
+        <v>13910341877</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>13661160687</v>
+        <v>13913286388</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>13911651930</v>
+        <v>13581902563</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>18500319413</v>
+        <v>13814864788</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>13391317871</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>13911899916</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>13801961938</v>
+        <v>54</v>
+      </c>
+      <c r="B54" s="4">
+        <v>13910418861</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>13816187606</v>
+        <v>13522666885</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>18910252462</v>
+        <v>13661779133</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>18917581157</v>
+        <v>15698276543</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>13816997328</v>
+        <v>18611012905</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>18842101886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>13407608487</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>13911960196</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="4">
+        <v>18580629021</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>18501045885</v>
+        <v>13906298208</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>13810910816</v>
+        <v>18580629021</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>18986731125</v>
+        <v>13121552193</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>18322333201</v>
+        <v>13916501928</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>13717925917</v>
+        <v>13911305786</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>13701848984</v>
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>18616598178</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>13791047327</v>
+        <v>13314450749</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>13466411327</v>
+        <v>13805273388</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>13911303927</v>
+        <v>13601007501</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>18622590867</v>
+        <v>13810289429</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>18701022421</v>
+        <v>13716496415</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>13512881188</v>
+        <v>15198770619</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>13903815596</v>
+        <v>15101051197</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>15811028740</v>
+        <v>13455282955</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>13911434519</v>
+        <v>13661160687</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>17752520609</v>
+        <v>13911651930</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>13366551881</v>
+        <v>18500319413</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>13511015129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>13391317871</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1">
-        <v>13370809090</v>
+        <v>79</v>
+      </c>
+      <c r="B79" s="6">
+        <v>15151653937</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>18834810368</v>
+        <v>13801961938</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>13810690606</v>
+        <v>13816187606</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>18610724815</v>
+        <v>18910252462</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>13466643261</v>
+        <v>13911211990</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>18501134324</v>
+        <v>18917581157</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>18600676003</v>
+        <v>13816997328</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>15101042310</v>
+        <v>18053228686</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>13321101606</v>
+        <v>13464694220</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>15657111363</v>
+        <v>18842101886</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>13051925049</v>
+        <v>13911960196</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>13701092782</v>
+        <v>18501045885</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>15133606444</v>
+        <v>13810910816</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>18036839329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>13188273333</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1">
-        <v>13501211730</v>
+        <v>93</v>
+      </c>
+      <c r="B93" s="4">
+        <v>13811304390</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>18119698878</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>18986731125</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1">
-        <v>18910713002</v>
+        <v>95</v>
+      </c>
+      <c r="B95" s="4">
+        <v>13588896106</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>13501990564</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>18322333201</v>
+      </c>
+    </row>
+    <row r="97" ht="17.25" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1">
-        <v>18519128006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="B97" s="7">
+        <v>13523024383</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1">
-        <v>18519128006</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="B98" s="6">
+        <v>13581518531</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1">
-        <v>13810527992</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="B99" s="7">
+        <v>13523024383</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1">
-        <v>13001198861</v>
+        <v>100</v>
+      </c>
+      <c r="B100" s="4">
+        <v>13791047327</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>15077847265</v>
+        <v>13466411327</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>13522258810</v>
+        <v>13911303927</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>15584489900</v>
+        <v>18622590867</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>13196686655</v>
+        <v>18701022421</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>13522374609</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>13512881188</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1">
-        <v>18010867967</v>
+        <v>106</v>
+      </c>
+      <c r="B106" s="4">
+        <v>18983700058</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>18513989115</v>
+        <v>13903815596</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>13501007873</v>
+        <v>15811028740</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>15997459120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>13911434519</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1">
-        <v>13911714711</v>
+        <v>110</v>
+      </c>
+      <c r="B110" s="4">
+        <v>13911969827</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>13331051885</v>
+        <v>17752520609</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>18610489751</v>
+        <v>18510697528</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>18910651315</v>
+        <v>13366551881</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>13521132569</v>
+        <v>13511015129</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1">
-        <v>13602863535</v>
+        <v>115</v>
+      </c>
+      <c r="B115" s="3">
+        <v>15910989970</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1">
-        <v>18837223169</v>
+        <v>116</v>
+      </c>
+      <c r="B116" s="3">
+        <v>18611458170</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1">
-        <v>18511337177</v>
+        <v>117</v>
+      </c>
+      <c r="B117" s="2">
+        <v>13671224571</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>13065068029</v>
+        <v>13370809090</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>13003153362</v>
+        <v>18834810368</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>13352000058</v>
+        <v>13810690606</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>13717745712</v>
+        <v>18610724815</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1">
-        <v>13601203336</v>
+        <v>122</v>
+      </c>
+      <c r="B122" s="3">
+        <v>18500262114</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>15857916161</v>
+        <v>13466643261</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>15910616352</v>
+        <v>18501134324</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1">
-        <v>13910718249</v>
+        <v>125</v>
+      </c>
+      <c r="B125" s="3">
+        <v>15210574263</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>18600597076</v>
+        <v>18910711567</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>13606517297</v>
+        <v>18600676003</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>13735812519</v>
+        <v>15101042310</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>15862508833</v>
+        <v>13321101606</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>13336152008</v>
+        <v>15657111363</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>15718895957</v>
+        <v>13051925049</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>13702106483</v>
+        <v>13701092782</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>13706225178</v>
+        <v>15133606444</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>18660268718</v>
+        <v>18036839329</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>15821938516</v>
+        <v>13501211730</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>13311783976</v>
+        <v>18119698878</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>13451599195</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>18910713002</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="1">
-        <v>18611861718</v>
+        <v>138</v>
+      </c>
+      <c r="B138" s="4">
+        <v>13913249929</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" s="2">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1">
+        <v>13501990564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1">
+        <v>18519128006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1">
+        <v>18519128006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1">
+        <v>13581967895</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1">
+        <v>13810527992</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1">
+        <v>13001198861</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1">
+        <v>15077847265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1">
+        <v>13522258810</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1">
+        <v>15584489900</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1">
+        <v>13196686655</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>13911010181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1">
+        <v>13522374609</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1">
+        <v>18801035119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1">
+        <v>18010867967</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1">
+        <v>18513989115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1">
+        <v>13501007873</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1">
+        <v>15997459120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1">
+        <v>13911714711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1">
+        <v>13331051885</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1">
+        <v>18610489751</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1">
+        <v>13701375370</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1">
+        <v>18910651315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1">
+        <v>13521132569</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="1">
+        <v>13602863535</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1">
+        <v>18837223169</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="4">
+        <v>18366198357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1">
+        <v>18511337177</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="1">
+        <v>13065068029</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="1">
+        <v>13003153362</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="1">
+        <v>13352000058</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="1">
+        <v>13717745712</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="1">
+        <v>13601203336</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="4">
+        <v>13718182730</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="1">
+        <v>15857916161</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="4">
+        <v>15958987863</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="1">
+        <v>15910616352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="1">
+        <v>13910718249</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="4">
+        <v>18501233933</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="1">
+        <v>18600597076</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="1">
+        <v>13606517297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="1">
+        <v>13735812519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="1">
+        <v>15862508833</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="1">
+        <v>13336152008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="1">
+        <v>13141181499</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="1">
+        <v>15718895957</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="4">
+        <v>18862113180</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="4">
+        <v>18501948910</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="1">
+        <v>13702106483</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="4">
+        <v>17717899719</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="1">
+        <v>13706225178</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="1">
+        <v>18660268718</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="4">
+        <v>15158287498</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="1">
+        <v>15821938516</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="1">
+        <v>13311783976</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="1">
+        <v>13451599195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="1">
+        <v>18611861718</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="4">
+        <v>13810040122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="9">
         <v>18911502020</v>
       </c>
     </row>
-    <row r="1048515" spans="2:2">
-      <c r="B1048515" s="3"/>
-    </row>
-    <row r="1048516" spans="2:2">
-      <c r="B1048516" s="3"/>
-    </row>
-    <row r="1048517" spans="2:2">
-      <c r="B1048517" s="3"/>
-    </row>
-    <row r="1048518" spans="2:2">
-      <c r="B1048518" s="3"/>
-    </row>
-    <row r="1048519" spans="2:2">
-      <c r="B1048519" s="3"/>
-    </row>
-    <row r="1048520" spans="2:2">
-      <c r="B1048520" s="3"/>
-    </row>
-    <row r="1048521" spans="2:2">
-      <c r="B1048521" s="3"/>
-    </row>
-    <row r="1048522" spans="2:2">
-      <c r="B1048522" s="3"/>
-    </row>
-    <row r="1048523" spans="2:2">
-      <c r="B1048523" s="3"/>
-    </row>
-    <row r="1048524" spans="2:2">
-      <c r="B1048524" s="3"/>
-    </row>
-    <row r="1048525" spans="2:2">
-      <c r="B1048525" s="3"/>
-    </row>
-    <row r="1048526" spans="2:2">
-      <c r="B1048526" s="3"/>
-    </row>
-    <row r="1048527" spans="2:2">
-      <c r="B1048527" s="3"/>
-    </row>
-    <row r="1048528" spans="2:2">
-      <c r="B1048528" s="3"/>
-    </row>
-    <row r="1048529" spans="2:2">
-      <c r="B1048529" s="3"/>
-    </row>
-    <row r="1048530" spans="2:2">
-      <c r="B1048530" s="3"/>
-    </row>
-    <row r="1048531" spans="2:2">
-      <c r="B1048531" s="3"/>
-    </row>
-    <row r="1048532" spans="2:2">
-      <c r="B1048532" s="3"/>
-    </row>
-    <row r="1048533" spans="2:2">
-      <c r="B1048533" s="3"/>
-    </row>
-    <row r="1048534" spans="2:2">
-      <c r="B1048534" s="3"/>
-    </row>
-    <row r="1048535" spans="2:2">
-      <c r="B1048535" s="3"/>
-    </row>
-    <row r="1048536" spans="2:2">
-      <c r="B1048536" s="3"/>
-    </row>
-    <row r="1048537" spans="2:2">
-      <c r="B1048537" s="3"/>
-    </row>
-    <row r="1048538" spans="2:2">
-      <c r="B1048538" s="3"/>
-    </row>
-    <row r="1048539" spans="2:2">
-      <c r="B1048539" s="3"/>
-    </row>
-    <row r="1048540" spans="2:2">
-      <c r="B1048540" s="3"/>
-    </row>
-    <row r="1048541" spans="2:2">
-      <c r="B1048541" s="3"/>
-    </row>
-    <row r="1048542" spans="2:2">
-      <c r="B1048542" s="3"/>
-    </row>
-    <row r="1048543" spans="2:2">
-      <c r="B1048543" s="3"/>
-    </row>
-    <row r="1048544" spans="2:2">
-      <c r="B1048544" s="3"/>
-    </row>
-    <row r="1048545" spans="2:2">
-      <c r="B1048545" s="3"/>
-    </row>
-    <row r="1048546" spans="2:2">
-      <c r="B1048546" s="3"/>
-    </row>
-    <row r="1048547" spans="2:2">
-      <c r="B1048547" s="3"/>
-    </row>
-    <row r="1048548" spans="2:2">
-      <c r="B1048548" s="3"/>
-    </row>
-    <row r="1048549" spans="2:2">
-      <c r="B1048549" s="3"/>
-    </row>
-    <row r="1048550" spans="2:2">
-      <c r="B1048550" s="3"/>
-    </row>
-    <row r="1048551" spans="2:2">
-      <c r="B1048551" s="3"/>
-    </row>
-    <row r="1048552" spans="2:2">
-      <c r="B1048552" s="3"/>
-    </row>
-    <row r="1048553" spans="2:2">
-      <c r="B1048553" s="3"/>
-    </row>
-    <row r="1048554" spans="2:2">
-      <c r="B1048554" s="3"/>
-    </row>
-    <row r="1048555" spans="2:2">
-      <c r="B1048555" s="3"/>
-    </row>
-    <row r="1048556" spans="2:2">
-      <c r="B1048556" s="3"/>
-    </row>
-    <row r="1048557" spans="2:2">
-      <c r="B1048557" s="3"/>
-    </row>
-    <row r="1048558" spans="2:2">
-      <c r="B1048558" s="3"/>
-    </row>
-    <row r="1048559" spans="2:2">
-      <c r="B1048559" s="3"/>
-    </row>
-    <row r="1048560" spans="2:2">
-      <c r="B1048560" s="3"/>
-    </row>
-    <row r="1048561" spans="2:2">
-      <c r="B1048561" s="3"/>
-    </row>
-    <row r="1048562" spans="2:2">
-      <c r="B1048562" s="3"/>
-    </row>
-    <row r="1048563" spans="2:2">
-      <c r="B1048563" s="3"/>
-    </row>
-    <row r="1048564" spans="2:2">
-      <c r="B1048564" s="3"/>
-    </row>
-    <row r="1048565" spans="2:2">
-      <c r="B1048565" s="3"/>
-    </row>
-    <row r="1048566" spans="2:2">
-      <c r="B1048566" s="3"/>
-    </row>
-    <row r="1048567" spans="2:2">
-      <c r="B1048567" s="3"/>
-    </row>
-    <row r="1048568" spans="2:2">
-      <c r="B1048568" s="3"/>
-    </row>
-    <row r="1048569" spans="2:2">
-      <c r="B1048569" s="3"/>
-    </row>
-    <row r="1048570" spans="2:2">
-      <c r="B1048570" s="3"/>
-    </row>
-    <row r="1048571" spans="2:2">
-      <c r="B1048571" s="3"/>
-    </row>
-    <row r="1048572" spans="2:2">
-      <c r="B1048572" s="3"/>
-    </row>
     <row r="1048573" spans="2:2">
-      <c r="B1048573" s="3"/>
+      <c r="B1048573" s="10"/>
     </row>
     <row r="1048574" spans="2:2">
-      <c r="B1048574" s="3"/>
-    </row>
-    <row r="1048575" spans="2:2">
-      <c r="B1048575" s="3"/>
+      <c r="B1048574" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1048515:A1048576">
+  <conditionalFormatting sqref="A1048573:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="B1048515:B1048576" errorStyle="warning">
-      <formula1>COUNTIF($B:$B,B1048515)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="B1048573:B1048576" errorStyle="warning">
+      <formula1>COUNTIF($B:$B,B1048573)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
